--- a/excel/dssp.xlsx
+++ b/excel/dssp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>product_id</t>
   </si>
@@ -78,18 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">The North Face        </t>
-  </si>
-  <si>
-    <t>Adizero Adios Pro 3</t>
-  </si>
-  <si>
-    <t>Duramo Speed</t>
-  </si>
-  <si>
-    <t>Predator 24 League Turf Boots</t>
-  </si>
-  <si>
-    <t>X Crazyfast.3 Turf Boots</t>
   </si>
 </sst>
 </file>
@@ -134,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -393,98 +381,6 @@
         <v>1966.0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E12" t="n" s="0">
-        <v>6500000.0</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G12" t="n" s="0">
-        <v>2024.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C13" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D13" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E13" t="n" s="0">
-        <v>2500000.0</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G13" t="n" s="0">
-        <v>2024.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C14" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D14" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="E14" t="n" s="0">
-        <v>1920000.0</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G14" t="n" s="0">
-        <v>2024.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C15" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D15" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="E15" t="n" s="0">
-        <v>1920000.0</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G15" t="n" s="0">
-        <v>2024.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
